--- a/resources/ExcelTestData.xlsx
+++ b/resources/ExcelTestData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16875" windowHeight="3060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SheetOne" sheetId="1" r:id="rId1"/>
     <sheet name="SheetTwo" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M8"/>
 </workbook>
 </file>
 
@@ -235,393 +235,10 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="V3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Each Beneficiaries separated by single space</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Active user
-Position: Christian Education Director</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Active user
-Position: Dean</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Active User
-Position: Priest </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Retired User
-Position: None</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>TestCaseNameColumn</t>
-  </si>
-  <si>
-    <t>AccountPageTitle</t>
-  </si>
-  <si>
-    <t>carlson1</t>
-  </si>
-  <si>
-    <t>ccarlson1!</t>
-  </si>
-  <si>
-    <t>paulthompson1</t>
-  </si>
-  <si>
-    <t>paulthompson$$1</t>
-  </si>
-  <si>
-    <t>CPG: MyCPG Accounts</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>DateOfBirth</t>
-  </si>
-  <si>
-    <t>xx/xx/1944</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>1 (206) 523-2561</t>
-  </si>
-  <si>
-    <t>ClientNumber</t>
-  </si>
-  <si>
-    <t>382-731-24</t>
-  </si>
-  <si>
-    <t>xx/xx/1932</t>
-  </si>
-  <si>
-    <t>1 (508) 362-9465</t>
-  </si>
-  <si>
-    <t>332-854-95</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>1507 NE 103rd St, Seattle, WA 98125-7636</t>
-  </si>
-  <si>
-    <t>PO Box 91, Cummaquid, MA 02637-0091</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>The Rev Constance Carlson</t>
-  </si>
-  <si>
-    <t>The Rev Paul Thompson</t>
-  </si>
-  <si>
-    <t>Beneficiaries</t>
-  </si>
-  <si>
-    <t>markhamian1</t>
-  </si>
-  <si>
-    <t>markhamian1!</t>
-  </si>
-  <si>
-    <t>The Rev Ian Markham</t>
-  </si>
-  <si>
-    <t>3737 Seminary Rd, Alexandria, VA 22304-5202</t>
-  </si>
-  <si>
-    <t>1 (703) 888-2930</t>
-  </si>
-  <si>
-    <t>503-950-52</t>
-  </si>
-  <si>
-    <t>InstitutionName</t>
-  </si>
-  <si>
-    <t>InstitutionAddress</t>
-  </si>
-  <si>
-    <t>PositionTitle</t>
-  </si>
-  <si>
-    <t>Virginia Theological Seminary</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>xx/xx/1962</t>
-  </si>
-  <si>
-    <t>patrictc1</t>
-  </si>
-  <si>
-    <t>patrictc1$</t>
-  </si>
-  <si>
-    <t>The Rev Patrick Crerar</t>
-  </si>
-  <si>
-    <t>209 W Avenida Palizada, Apt A, San Clemente, CA 92672-6793</t>
-  </si>
-  <si>
-    <t>xx/xx/1968</t>
-  </si>
-  <si>
-    <t>1 (949) 322-5396</t>
-  </si>
-  <si>
-    <t>836-391-20</t>
-  </si>
-  <si>
-    <t>Saint Clement's-By-The-Sea Parish</t>
-  </si>
-  <si>
-    <t>202 Avenida Aragon, San Clemente, CA 92672-5015</t>
-  </si>
-  <si>
-    <t>Christian Education Director</t>
-  </si>
-  <si>
-    <t>MyCPGAccountPensionPlanPodTestCase</t>
-  </si>
-  <si>
-    <t>YearsOfCreditedService</t>
-  </si>
-  <si>
-    <t>6.5333</t>
-  </si>
-  <si>
-    <t>7.4167</t>
-  </si>
-  <si>
-    <t>4.9223</t>
-  </si>
-  <si>
-    <t>HighestAverageCompensation</t>
-  </si>
-  <si>
-    <t>$ 65,320.12</t>
-  </si>
-  <si>
-    <t>$ 212,040.44</t>
-  </si>
-  <si>
-    <t>$ 20,049.39</t>
-  </si>
-  <si>
-    <t>LumpSumDeathBenefitAmount</t>
-  </si>
-  <si>
-    <t>$ 5,000.00</t>
-  </si>
-  <si>
-    <t>MonthlyPensionBenefit</t>
-  </si>
-  <si>
-    <t>$ 3,859.78</t>
-  </si>
-  <si>
-    <t>RetirementDate</t>
-  </si>
-  <si>
-    <t>PaymentEffectiveDate</t>
-  </si>
-  <si>
-    <t>08/01/1998</t>
-  </si>
-  <si>
-    <t>01/01/2015</t>
-  </si>
-  <si>
-    <t>AmountOfMedicalDeduction</t>
-  </si>
-  <si>
-    <t>$ 130.00</t>
-  </si>
-  <si>
-    <t>MonthlyComprehensiveCoverageReduction</t>
-  </si>
-  <si>
-    <t>$ 0.00</t>
-  </si>
-  <si>
-    <t>TotalTaxWithholdingAmount</t>
-  </si>
-  <si>
-    <t>$ 300.00</t>
-  </si>
-  <si>
-    <t>Saint Andrew's Church</t>
-  </si>
-  <si>
-    <t>111 Ne 80th St, Seattle, WA 98115-4033</t>
-  </si>
-  <si>
-    <t>Priest</t>
-  </si>
-  <si>
-    <t>Lesley Patricia Markham (LSDB) Lesley Patricia Markham (PRSB) Luke Stephen Markham (LSDB)</t>
-  </si>
-  <si>
-    <t>georgewilki1</t>
-  </si>
-  <si>
-    <t>georgewilki1#$</t>
-  </si>
-  <si>
-    <t>Mr. George Wilkinson III</t>
-  </si>
-  <si>
-    <t>180 Forest Rd, West Haven, CT 06516-1301</t>
-  </si>
-  <si>
-    <t>xx/xx/1941</t>
-  </si>
-  <si>
-    <t>1 (203) 432-8026</t>
-  </si>
-  <si>
-    <t>168-645-55</t>
-  </si>
-  <si>
-    <t>$ 593.37</t>
-  </si>
-  <si>
-    <t>$ 81.00</t>
-  </si>
-  <si>
-    <t>Andrew P. Crerar (LSDB) Christina A. Crerar (LSDB)</t>
   </si>
   <si>
     <t>SheetOneTestCase</t>
@@ -733,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,13 +362,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -791,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -814,31 +424,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1144,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1162,71 +758,71 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>97</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>98</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>101</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>102</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1265,71 +861,71 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>108</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>110</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>114</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>117</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1344,341 +940,4 @@
   <pageSetup orientation="portrait" r:id="rId6"/>
   <legacyDrawing r:id="rId7"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>38961</v>
-      </c>
-      <c r="R8" s="7">
-        <v>42005</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/resources/ExcelTestData.xlsx
+++ b/resources/ExcelTestData.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16875" windowHeight="3060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16875" windowHeight="3060"/>
   </bookViews>
   <sheets>
     <sheet name="SheetOne" sheetId="1" r:id="rId1"/>
     <sheet name="SheetTwo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M8"/>
 </workbook>
 </file>
 
@@ -740,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -843,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
